--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vegfb-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vegfb-Nrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.532077666666667</v>
+        <v>2.692291333333333</v>
       </c>
       <c r="H2">
-        <v>4.596233</v>
+        <v>8.076874</v>
       </c>
       <c r="I2">
-        <v>0.07969157180033017</v>
+        <v>0.1057975873398775</v>
       </c>
       <c r="J2">
-        <v>0.08617351379832186</v>
+        <v>0.1132142695545834</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N2">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O2">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P2">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q2">
-        <v>167.2182655718551</v>
+        <v>170.8723316126522</v>
       </c>
       <c r="R2">
-        <v>1504.964390146696</v>
+        <v>1537.85098451387</v>
       </c>
       <c r="S2">
-        <v>0.02817529062705065</v>
+        <v>0.02491002066125091</v>
       </c>
       <c r="T2">
-        <v>0.03150468914637314</v>
+        <v>0.02713932252865437</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.532077666666667</v>
+        <v>2.692291333333333</v>
       </c>
       <c r="H3">
-        <v>4.596233</v>
+        <v>8.076874</v>
       </c>
       <c r="I3">
-        <v>0.07969157180033017</v>
+        <v>0.1057975873398775</v>
       </c>
       <c r="J3">
-        <v>0.08617351379832186</v>
+        <v>0.1132142695545834</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>143.942475</v>
       </c>
       <c r="O3">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P3">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q3">
-        <v>73.51035041074167</v>
+        <v>129.1783593136833</v>
       </c>
       <c r="R3">
-        <v>661.593153696675</v>
+        <v>1162.60523382315</v>
       </c>
       <c r="S3">
-        <v>0.0123860600983747</v>
+        <v>0.01883181185111236</v>
       </c>
       <c r="T3">
-        <v>0.01384968759729306</v>
+        <v>0.02051714940651555</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.532077666666667</v>
+        <v>2.692291333333333</v>
       </c>
       <c r="H4">
-        <v>4.596233</v>
+        <v>8.076874</v>
       </c>
       <c r="I4">
-        <v>0.07969157180033017</v>
+        <v>0.1057975873398775</v>
       </c>
       <c r="J4">
-        <v>0.08617351379832186</v>
+        <v>0.1132142695545834</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N4">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O4">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P4">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q4">
-        <v>95.39852354295333</v>
+        <v>173.7553466588998</v>
       </c>
       <c r="R4">
-        <v>858.5867118865799</v>
+        <v>1563.798119930098</v>
       </c>
       <c r="S4">
-        <v>0.01607408806102727</v>
+        <v>0.02533031084919967</v>
       </c>
       <c r="T4">
-        <v>0.01797351993196111</v>
+        <v>0.02759722624224356</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.532077666666667</v>
+        <v>2.692291333333333</v>
       </c>
       <c r="H5">
-        <v>4.596233</v>
+        <v>8.076874</v>
       </c>
       <c r="I5">
-        <v>0.07969157180033017</v>
+        <v>0.1057975873398775</v>
       </c>
       <c r="J5">
-        <v>0.08617351379832186</v>
+        <v>0.1132142695545834</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N5">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O5">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P5">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q5">
-        <v>46.73448641945634</v>
+        <v>38.75107396273967</v>
       </c>
       <c r="R5">
-        <v>280.406918516738</v>
+        <v>232.506443776438</v>
       </c>
       <c r="S5">
-        <v>0.007874485078953962</v>
+        <v>0.00564918874780563</v>
       </c>
       <c r="T5">
-        <v>0.005869994572762687</v>
+        <v>0.004103172174145255</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.532077666666667</v>
+        <v>2.692291333333333</v>
       </c>
       <c r="H6">
-        <v>4.596233</v>
+        <v>8.076874</v>
       </c>
       <c r="I6">
-        <v>0.07969157180033017</v>
+        <v>0.1057975873398775</v>
       </c>
       <c r="J6">
-        <v>0.08617351379832186</v>
+        <v>0.1132142695545834</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N6">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O6">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P6">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q6">
-        <v>90.10195741381779</v>
+        <v>213.1701238324175</v>
       </c>
       <c r="R6">
-        <v>810.9176167243601</v>
+        <v>1918.531114491758</v>
       </c>
       <c r="S6">
-        <v>0.01518164793492358</v>
+        <v>0.03107625523050891</v>
       </c>
       <c r="T6">
-        <v>0.01697562254993187</v>
+        <v>0.03385739920302464</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>13.574404</v>
       </c>
       <c r="I7">
-        <v>0.2353591715243089</v>
+        <v>0.1778087899819636</v>
       </c>
       <c r="J7">
-        <v>0.254502783126529</v>
+        <v>0.1902736421911268</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N7">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O7">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P7">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q7">
-        <v>493.8584038388942</v>
+        <v>287.1767049643356</v>
       </c>
       <c r="R7">
-        <v>4444.725634550048</v>
+        <v>2584.59034467902</v>
       </c>
       <c r="S7">
-        <v>0.08321222570504995</v>
+        <v>0.04186504384049657</v>
       </c>
       <c r="T7">
-        <v>0.093045191217957</v>
+        <v>0.04561172160049248</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>13.574404</v>
       </c>
       <c r="I8">
-        <v>0.2353591715243089</v>
+        <v>0.1778087899819636</v>
       </c>
       <c r="J8">
-        <v>0.254502783126529</v>
+        <v>0.1902736421911268</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>143.942475</v>
       </c>
       <c r="O8">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P8">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q8">
         <v>217.1037009344334</v>
@@ -948,10 +948,10 @@
         <v>1953.9333084099</v>
       </c>
       <c r="S8">
-        <v>0.03658069200225879</v>
+        <v>0.03164969790527709</v>
       </c>
       <c r="T8">
-        <v>0.04090333425643247</v>
+        <v>0.03448216165962257</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>13.574404</v>
       </c>
       <c r="I9">
-        <v>0.2353591715243089</v>
+        <v>0.1778087899819636</v>
       </c>
       <c r="J9">
-        <v>0.254502783126529</v>
+        <v>0.1902736421911268</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N9">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O9">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P9">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q9">
-        <v>281.7477050392267</v>
+        <v>292.0220462406565</v>
       </c>
       <c r="R9">
-        <v>2535.72934535304</v>
+        <v>2628.198416165908</v>
       </c>
       <c r="S9">
-        <v>0.04747282508784059</v>
+        <v>0.04257140484209848</v>
       </c>
       <c r="T9">
-        <v>0.05308256149296448</v>
+        <v>0.04638129780056196</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>13.574404</v>
       </c>
       <c r="I10">
-        <v>0.2353591715243089</v>
+        <v>0.1778087899819636</v>
       </c>
       <c r="J10">
-        <v>0.254502783126529</v>
+        <v>0.1902736421911268</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N10">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O10">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P10">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q10">
-        <v>138.0245081983907</v>
+        <v>65.12701985992467</v>
       </c>
       <c r="R10">
-        <v>828.1470491903441</v>
+        <v>390.762119159548</v>
       </c>
       <c r="S10">
-        <v>0.02325631484602564</v>
+        <v>0.009494313064060147</v>
       </c>
       <c r="T10">
-        <v>0.01733630079425654</v>
+        <v>0.006895999216207416</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>13.574404</v>
       </c>
       <c r="I11">
-        <v>0.2353591715243089</v>
+        <v>0.1778087899819636</v>
       </c>
       <c r="J11">
-        <v>0.254502783126529</v>
+        <v>0.1902736421911268</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N11">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O11">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P11">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q11">
-        <v>266.1049540190756</v>
+        <v>358.2645193711409</v>
       </c>
       <c r="R11">
-        <v>2394.94458617168</v>
+        <v>3224.380674340268</v>
       </c>
       <c r="S11">
-        <v>0.04483711388313395</v>
+        <v>0.05222833033003127</v>
       </c>
       <c r="T11">
-        <v>0.05013539536491849</v>
+        <v>0.05690246191424238</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.183793</v>
+        <v>4.544410333333333</v>
       </c>
       <c r="H12">
-        <v>12.551379</v>
+        <v>13.633231</v>
       </c>
       <c r="I12">
-        <v>0.2176215002093358</v>
+        <v>0.1785793547661169</v>
       </c>
       <c r="J12">
-        <v>0.2353223675658887</v>
+        <v>0.1910982255429393</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N12">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O12">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P12">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q12">
-        <v>456.6391275018053</v>
+        <v>288.4212343022672</v>
       </c>
       <c r="R12">
-        <v>4109.752147516248</v>
+        <v>2595.791108720405</v>
       </c>
       <c r="S12">
-        <v>0.07694099735484697</v>
+        <v>0.04204647316395011</v>
       </c>
       <c r="T12">
-        <v>0.08603290863481371</v>
+        <v>0.04580938779243669</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.183793</v>
+        <v>4.544410333333333</v>
       </c>
       <c r="H13">
-        <v>12.551379</v>
+        <v>13.633231</v>
       </c>
       <c r="I13">
-        <v>0.2176215002093358</v>
+        <v>0.1785793547661169</v>
       </c>
       <c r="J13">
-        <v>0.2353223675658887</v>
+        <v>0.1910982255429393</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>143.942475</v>
       </c>
       <c r="O13">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P13">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q13">
-        <v>200.741839769225</v>
+        <v>218.0445569318584</v>
       </c>
       <c r="R13">
-        <v>1806.676557923025</v>
+        <v>1962.401012386725</v>
       </c>
       <c r="S13">
-        <v>0.03382381498315645</v>
+        <v>0.03178685728101645</v>
       </c>
       <c r="T13">
-        <v>0.03782068447470452</v>
+        <v>0.03463159600119297</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.183793</v>
+        <v>4.544410333333333</v>
       </c>
       <c r="H14">
-        <v>12.551379</v>
+        <v>13.633231</v>
       </c>
       <c r="I14">
-        <v>0.2176215002093358</v>
+        <v>0.1785793547661169</v>
       </c>
       <c r="J14">
-        <v>0.2353223675658887</v>
+        <v>0.1910982255429393</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N14">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O14">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P14">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q14">
-        <v>260.5139959240599</v>
+        <v>293.2875736932208</v>
       </c>
       <c r="R14">
-        <v>2344.62596331654</v>
+        <v>2639.588163238987</v>
       </c>
       <c r="S14">
-        <v>0.04389507044863226</v>
+        <v>0.04275589530169039</v>
       </c>
       <c r="T14">
-        <v>0.04908203318458792</v>
+        <v>0.04658229908251243</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.183793</v>
+        <v>4.544410333333333</v>
       </c>
       <c r="H15">
-        <v>12.551379</v>
+        <v>13.633231</v>
       </c>
       <c r="I15">
-        <v>0.2176215002093358</v>
+        <v>0.1785793547661169</v>
       </c>
       <c r="J15">
-        <v>0.2353223675658887</v>
+        <v>0.1910982255429393</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N15">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O15">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P15">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q15">
-        <v>127.622392385449</v>
+        <v>65.40925893261617</v>
       </c>
       <c r="R15">
-        <v>765.734354312694</v>
+        <v>392.455553595697</v>
       </c>
       <c r="S15">
-        <v>0.0215036197372492</v>
+        <v>0.009535458292581376</v>
       </c>
       <c r="T15">
-        <v>0.01602976320188458</v>
+        <v>0.006925884207540502</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.183793</v>
+        <v>4.544410333333333</v>
       </c>
       <c r="H16">
-        <v>12.551379</v>
+        <v>13.633231</v>
       </c>
       <c r="I16">
-        <v>0.2176215002093358</v>
+        <v>0.1785793547661169</v>
       </c>
       <c r="J16">
-        <v>0.2353223675658887</v>
+        <v>0.1910982255429393</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N16">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O16">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P16">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q16">
-        <v>246.0501493598533</v>
+        <v>359.8171199038085</v>
       </c>
       <c r="R16">
-        <v>2214.45134423868</v>
+        <v>3238.354079134277</v>
       </c>
       <c r="S16">
-        <v>0.04145799768545093</v>
+        <v>0.05245467072687852</v>
       </c>
       <c r="T16">
-        <v>0.04635697806989796</v>
+        <v>0.05714905845925674</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.338314</v>
+        <v>5.001220999999999</v>
       </c>
       <c r="H17">
-        <v>8.676627999999999</v>
+        <v>10.002442</v>
       </c>
       <c r="I17">
-        <v>0.2256589656943268</v>
+        <v>0.1965304085046502</v>
       </c>
       <c r="J17">
-        <v>0.1626757222013997</v>
+        <v>0.1402051294587592</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N17">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O17">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P17">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q17">
-        <v>473.5042866099893</v>
+        <v>317.4137518476182</v>
       </c>
       <c r="R17">
-        <v>2841.025719659935</v>
+        <v>1904.48251108571</v>
       </c>
       <c r="S17">
-        <v>0.07978267710627547</v>
+        <v>0.0462730451563867</v>
       </c>
       <c r="T17">
-        <v>0.05947358804018796</v>
+        <v>0.03360947558574749</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.338314</v>
+        <v>5.001220999999999</v>
       </c>
       <c r="H18">
-        <v>8.676627999999999</v>
+        <v>10.002442</v>
       </c>
       <c r="I18">
-        <v>0.2256589656943268</v>
+        <v>0.1965304085046502</v>
       </c>
       <c r="J18">
-        <v>0.1626757222013997</v>
+        <v>0.1402051294587592</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>143.942475</v>
       </c>
       <c r="O18">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P18">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q18">
-        <v>208.15588482905</v>
+        <v>239.962709587325</v>
       </c>
       <c r="R18">
-        <v>1248.9353089743</v>
+        <v>1439.77625752395</v>
       </c>
       <c r="S18">
-        <v>0.0350730378091931</v>
+        <v>0.03498211792006363</v>
       </c>
       <c r="T18">
-        <v>0.02614501640755064</v>
+        <v>0.02540854258021187</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.338314</v>
+        <v>5.001220999999999</v>
       </c>
       <c r="H19">
-        <v>8.676627999999999</v>
+        <v>10.002442</v>
       </c>
       <c r="I19">
-        <v>0.2256589656943268</v>
+        <v>0.1965304085046502</v>
       </c>
       <c r="J19">
-        <v>0.1626757222013997</v>
+        <v>0.1402051294587592</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N19">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O19">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P19">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q19">
-        <v>270.13561992988</v>
+        <v>322.7692626774057</v>
       </c>
       <c r="R19">
-        <v>1620.81371957928</v>
+        <v>1936.615576064434</v>
       </c>
       <c r="S19">
-        <v>0.04551625729530299</v>
+        <v>0.0470537794283575</v>
       </c>
       <c r="T19">
-        <v>0.03392986088829958</v>
+        <v>0.03417654588259259</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.338314</v>
+        <v>5.001220999999999</v>
       </c>
       <c r="H20">
-        <v>8.676627999999999</v>
+        <v>10.002442</v>
       </c>
       <c r="I20">
-        <v>0.2256589656943268</v>
+        <v>0.1965304085046502</v>
       </c>
       <c r="J20">
-        <v>0.1626757222013997</v>
+        <v>0.1402051294587592</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N20">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O20">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P20">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q20">
-        <v>132.335899887802</v>
+        <v>71.98429177241348</v>
       </c>
       <c r="R20">
-        <v>529.3435995512079</v>
+        <v>287.9371670896539</v>
       </c>
       <c r="S20">
-        <v>0.02229781792664802</v>
+        <v>0.0104939762828376</v>
       </c>
       <c r="T20">
-        <v>0.01108119611644596</v>
+        <v>0.005081389370182301</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.338314</v>
+        <v>5.001220999999999</v>
       </c>
       <c r="H21">
-        <v>8.676627999999999</v>
+        <v>10.002442</v>
       </c>
       <c r="I21">
-        <v>0.2256589656943268</v>
+        <v>0.1965304085046502</v>
       </c>
       <c r="J21">
-        <v>0.1626757222013997</v>
+        <v>0.1402051294587592</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N21">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O21">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P21">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q21">
-        <v>255.1375767562933</v>
+        <v>395.9864546172022</v>
       </c>
       <c r="R21">
-        <v>1530.82546053776</v>
+        <v>2375.918727703213</v>
       </c>
       <c r="S21">
-        <v>0.04298917555690718</v>
+        <v>0.05772748971700473</v>
       </c>
       <c r="T21">
-        <v>0.03204606074891553</v>
+        <v>0.04192917604002491</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.646104333333334</v>
+        <v>8.684844333333333</v>
       </c>
       <c r="H22">
-        <v>13.938313</v>
+        <v>26.054533</v>
       </c>
       <c r="I22">
-        <v>0.2416687907716983</v>
+        <v>0.341283859407392</v>
       </c>
       <c r="J22">
-        <v>0.2613256133078609</v>
+        <v>0.3652087332525911</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N22">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O22">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P22">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q22">
-        <v>507.0979919550729</v>
+        <v>551.2032009894905</v>
       </c>
       <c r="R22">
-        <v>4563.881927595656</v>
+        <v>4960.828808905414</v>
       </c>
       <c r="S22">
-        <v>0.0854430181467733</v>
+        <v>0.08035521605874296</v>
       </c>
       <c r="T22">
-        <v>0.09553959041890428</v>
+        <v>0.08754654021103572</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.646104333333334</v>
+        <v>8.684844333333333</v>
       </c>
       <c r="H23">
-        <v>13.938313</v>
+        <v>26.054533</v>
       </c>
       <c r="I23">
-        <v>0.2416687907716983</v>
+        <v>0.341283859407392</v>
       </c>
       <c r="J23">
-        <v>0.2613256133078609</v>
+        <v>0.3652087332525911</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>143.942475</v>
       </c>
       <c r="O23">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P23">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q23">
-        <v>222.9239189494084</v>
+        <v>416.7059961099083</v>
       </c>
       <c r="R23">
-        <v>2006.315270544675</v>
+        <v>3750.353964989175</v>
       </c>
       <c r="S23">
-        <v>0.03756136437990793</v>
+        <v>0.06074801505193693</v>
       </c>
       <c r="T23">
-        <v>0.0419998900585085</v>
+        <v>0.0661846088323267</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.646104333333334</v>
+        <v>8.684844333333333</v>
       </c>
       <c r="H24">
-        <v>13.938313</v>
+        <v>26.054533</v>
       </c>
       <c r="I24">
-        <v>0.2416687907716983</v>
+        <v>0.341283859407392</v>
       </c>
       <c r="J24">
-        <v>0.2613256133078609</v>
+        <v>0.3652087332525911</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N24">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O24">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P24">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q24">
-        <v>289.3009298874866</v>
+        <v>560.5032854852934</v>
       </c>
       <c r="R24">
-        <v>2603.70836898738</v>
+        <v>5044.529569367642</v>
       </c>
       <c r="S24">
-        <v>0.04874549888662329</v>
+        <v>0.08171099610080962</v>
       </c>
       <c r="T24">
-        <v>0.05450562374087926</v>
+        <v>0.08902365467593043</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.646104333333334</v>
+        <v>8.684844333333333</v>
       </c>
       <c r="H25">
-        <v>13.938313</v>
+        <v>26.054533</v>
       </c>
       <c r="I25">
-        <v>0.2416687907716983</v>
+        <v>0.341283859407392</v>
       </c>
       <c r="J25">
-        <v>0.2613256133078609</v>
+        <v>0.3652087332525911</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N25">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O25">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P25">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q25">
-        <v>141.7247340612697</v>
+        <v>125.0039477336952</v>
       </c>
       <c r="R25">
-        <v>850.3484043676181</v>
+        <v>750.0236864021709</v>
       </c>
       <c r="S25">
-        <v>0.02387978106077086</v>
+        <v>0.01822325997074245</v>
       </c>
       <c r="T25">
-        <v>0.01780106049094283</v>
+        <v>0.01323609044983855</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.646104333333334</v>
+        <v>8.684844333333333</v>
       </c>
       <c r="H26">
-        <v>13.938313</v>
+        <v>26.054533</v>
       </c>
       <c r="I26">
-        <v>0.2416687907716983</v>
+        <v>0.341283859407392</v>
       </c>
       <c r="J26">
-        <v>0.2613256133078609</v>
+        <v>0.3652087332525911</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N26">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O26">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P26">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q26">
-        <v>273.2388206486622</v>
+        <v>687.6482195965677</v>
       </c>
       <c r="R26">
-        <v>2459.14938583796</v>
+        <v>6188.83397636911</v>
       </c>
       <c r="S26">
-        <v>0.04603912829762297</v>
+        <v>0.10024637222516</v>
       </c>
       <c r="T26">
-        <v>0.051479448598626</v>
+        <v>0.1092178390834597</v>
       </c>
     </row>
   </sheetData>
